--- a/biology/Zoologie/Barbourofelidae/Barbourofelidae.xlsx
+++ b/biology/Zoologie/Barbourofelidae/Barbourofelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbourofelidés
-Les Barbourofelidae (barbourofélidés en français) sont une famille éteinte de mammifères carnivores du sous-ordre des féliformes[1] et étroitement apparentée aux félidés[2],[3]. Ils vécurent en Eurasie, en Amérique du Nord et sur le continent africain au Miocène.
+Les Barbourofelidae (barbourofélidés en français) sont une famille éteinte de mammifères carnivores du sous-ordre des féliformes et étroitement apparentée aux félidés,. Ils vécurent en Eurasie, en Amérique du Nord et sur le continent africain au Miocène.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type, Barbourofelis, a été initialement décrit par le paléontologue américain Charles Bertrand Schultz (d)  (1908-1995) et son équipe en 1970 et attribué à une nouvelle tribu, Barbourofelini, au sein des félins de la sous-famille des Machairodontinae[4]. Par la suite, la tribu a été réaffectée aux Nimravidae par Tedford (1978) et a été élevé comme sous-famille de ce dernier par Bryant (1991)[5],[6]. Cependant, un certain nombre d'études au début des années 2000 ont identifié une affinité plus étroite des Barbourofelinae avec les Felidae qu'avec les Nimravidae[2] et ils ont été reclassés comme une famille distincte par Morlo et al. en 2004[6]. Depuis lors, l'opinion dominante a les barbourofélidés comme groupe frère des félidés[3] bien que cela ait récemment été contesté à la suite de la description du genre datant du Miocène moyen du nord de la Chine, Oriensmilus, qui a fourni des preuves, principalement basées sur la morphologie basicrânienne, que les barbourofélidés sont peut être plus étroitement liée aux nimravidés qu'aux félins[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type, Barbourofelis, a été initialement décrit par le paléontologue américain Charles Bertrand Schultz (d)  (1908-1995) et son équipe en 1970 et attribué à une nouvelle tribu, Barbourofelini, au sein des félins de la sous-famille des Machairodontinae. Par la suite, la tribu a été réaffectée aux Nimravidae par Tedford (1978) et a été élevé comme sous-famille de ce dernier par Bryant (1991),. Cependant, un certain nombre d'études au début des années 2000 ont identifié une affinité plus étroite des Barbourofelinae avec les Felidae qu'avec les Nimravidae et ils ont été reclassés comme une famille distincte par Morlo et al. en 2004. Depuis lors, l'opinion dominante a les barbourofélidés comme groupe frère des félidés bien que cela ait récemment été contesté à la suite de la description du genre datant du Miocène moyen du nord de la Chine, Oriensmilus, qui a fourni des preuves, principalement basées sur la morphologie basicrânienne, que les barbourofélidés sont peut être plus étroitement liée aux nimravidés qu'aux félins.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les barbourofélidés apparaissent pour la première fois dans les archives fossiles du Miocène inférieur d'Afrique. À la fin du Miocène inférieur, un pont terrestre s'était ouvert entre l'Afrique et l'Eurasie, permettant un échange faunique entre les deux continents. Les barbourofélidés ont migré au moins trois fois d'Afrique vers l'Europe[8]. Alors que le genre Sansanosmilus a évolué en Europe, les barbourofelidés ont également migré à travers l'Eurasie et ont atteint l'Amérique du Nord à la fin du Miocène, représentés là uniquement par le genre Barbourofelis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les barbourofélidés apparaissent pour la première fois dans les archives fossiles du Miocène inférieur d'Afrique. À la fin du Miocène inférieur, un pont terrestre s'était ouvert entre l'Afrique et l'Eurasie, permettant un échange faunique entre les deux continents. Les barbourofélidés ont migré au moins trois fois d'Afrique vers l'Europe. Alors que le genre Sansanosmilus a évolué en Europe, les barbourofelidés ont également migré à travers l'Eurasie et ont atteint l'Amérique du Nord à la fin du Miocène, représentés là uniquement par le genre Barbourofelis.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 mars 2020)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 mars 2020) :
 genre  †Albanosmilus Kretzoi, 1929
 genre  †Barbourofelis Schultz, Schultz &amp; Martin, 1970
 genre  †Prosansanosmilus Heizmann, Ginsburg, C. Bulot, 1980
